--- a/output/DSCP608_output.xlsx
+++ b/output/DSCP608_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>Staff Report</t>
   </si>
@@ -69,6 +69,15 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPC608</t>
+  </si>
+  <si>
+    <t>Max marks</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -84,16 +93,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -114,124 +123,151 @@
     <t>Mohanraj D</t>
   </si>
   <si>
+    <t>Sanjay S</t>
+  </si>
+  <si>
+    <t>Jaisankar S</t>
+  </si>
+  <si>
     <t>Marikannan P</t>
   </si>
   <si>
-    <t>Sanjay S</t>
-  </si>
-  <si>
     <t>Guruprasath V</t>
   </si>
   <si>
-    <t>Jaisankar S</t>
+    <t>Kaviraj M</t>
+  </si>
+  <si>
+    <t>Pranav Varshan A T</t>
+  </si>
+  <si>
+    <t>Preethiga S</t>
+  </si>
+  <si>
+    <t>Manoharan K</t>
+  </si>
+  <si>
+    <t>Krishnakumar S</t>
+  </si>
+  <si>
+    <t>Sathishkumar N</t>
+  </si>
+  <si>
+    <t>Jananika B</t>
+  </si>
+  <si>
+    <t>Dhinakaran R</t>
+  </si>
+  <si>
+    <t>Ashik Jenly V L</t>
   </si>
   <si>
     <t>Arulselvam C</t>
   </si>
   <si>
-    <t>Sathishkumar N</t>
-  </si>
-  <si>
-    <t>Preethiga S</t>
-  </si>
-  <si>
-    <t>Pranav Varshan A T</t>
-  </si>
-  <si>
-    <t>Kaviraj M</t>
-  </si>
-  <si>
-    <t>Krishnakumar S</t>
-  </si>
-  <si>
-    <t>Manoharan K</t>
-  </si>
-  <si>
-    <t>Jananika B</t>
-  </si>
-  <si>
-    <t>Dhinakaran R</t>
-  </si>
-  <si>
-    <t>Ashik Jenly V L</t>
-  </si>
-  <si>
     <t>Adhithi K</t>
   </si>
   <si>
+    <t>Dhanush B</t>
+  </si>
+  <si>
+    <t>Manuneethi S</t>
+  </si>
+  <si>
+    <t>Jaikrishnan V</t>
+  </si>
+  <si>
     <t>Aravind R</t>
   </si>
   <si>
+    <t>Deepakragavan J</t>
+  </si>
+  <si>
     <t>Subhashini S</t>
   </si>
   <si>
     <t>Nawin B</t>
   </si>
   <si>
-    <t>Manuneethi S</t>
-  </si>
-  <si>
-    <t>Deepakragavan J</t>
-  </si>
-  <si>
-    <t>Dhanush B</t>
-  </si>
-  <si>
-    <t>Jaikrishnan V</t>
-  </si>
-  <si>
     <t>Mohammed Azees M</t>
   </si>
   <si>
+    <t>Varsha V</t>
+  </si>
+  <si>
     <t>Naveena A</t>
   </si>
   <si>
-    <t>Varsha V</t>
+    <t>Devadharshini A</t>
+  </si>
+  <si>
+    <t>Kalaivani S</t>
+  </si>
+  <si>
+    <t>Srija D</t>
+  </si>
+  <si>
+    <t>Surya Prakash R</t>
+  </si>
+  <si>
+    <t>Krishnapriya K</t>
+  </si>
+  <si>
+    <t>Bhuvanadurai M</t>
+  </si>
+  <si>
+    <t>Hitesh Kumar K A</t>
+  </si>
+  <si>
+    <t>Mohamed Tharif B</t>
+  </si>
+  <si>
+    <t>Nithya Sri R</t>
+  </si>
+  <si>
+    <t>Suji Shri B</t>
+  </si>
+  <si>
+    <t>Pradeep M</t>
+  </si>
+  <si>
+    <t>Nilavanan S.A</t>
+  </si>
+  <si>
+    <t>Sikanthkumar C</t>
+  </si>
+  <si>
+    <t>Rajadurai P</t>
+  </si>
+  <si>
+    <t>Sivaa Ganesh S</t>
+  </si>
+  <si>
+    <t>Brijesh A</t>
+  </si>
+  <si>
+    <t>Balaganapathi A</t>
+  </si>
+  <si>
+    <t>Ayyanar Bala Subramanian T</t>
+  </si>
+  <si>
+    <t>Gowtham R</t>
+  </si>
+  <si>
+    <t>Ajay S</t>
+  </si>
+  <si>
+    <t>Kailashwaran R</t>
+  </si>
+  <si>
+    <t>Upanshu</t>
+  </si>
+  <si>
+    <t>Mohamed Suhail J</t>
   </si>
   <si>
     <t>Aravind S</t>
-  </si>
-  <si>
-    <t>Nilavanan S.A</t>
-  </si>
-  <si>
-    <t>Sikanthkumar C</t>
-  </si>
-  <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Suji Shri B</t>
-  </si>
-  <si>
-    <t>Upanshu</t>
-  </si>
-  <si>
-    <t>Ajay S</t>
-  </si>
-  <si>
-    <t>Ayyanar Bala Subramanian T</t>
-  </si>
-  <si>
-    <t>Balaganapathi A</t>
-  </si>
-  <si>
-    <t>Brijesh A</t>
-  </si>
-  <si>
-    <t>Mohamed Suhail J</t>
-  </si>
-  <si>
-    <t>Pradeep M</t>
-  </si>
-  <si>
-    <t>Rajadurai P</t>
-  </si>
-  <si>
-    <t>Gowtham R</t>
-  </si>
-  <si>
-    <t>Kailashwaran R</t>
   </si>
 </sst>
 </file>
@@ -720,17 +756,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -738,50 +792,50 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>6.84313725490196</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,16 +856,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -822,7 +876,7 @@
         <v>2136110041</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -836,7 +890,7 @@
         <v>2136110012</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -844,13 +898,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2136110046</v>
+        <v>2136110043</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -858,13 +912,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>2136110043</v>
+        <v>2136110033</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -872,13 +926,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>2136110007</v>
+        <v>2136110046</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -886,13 +940,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2136110033</v>
+        <v>2136110007</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -900,13 +954,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>2136110002</v>
+        <v>2136110034</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -914,13 +968,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>2136110044</v>
+        <v>2136110039</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -934,7 +988,7 @@
         <v>2136110040</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -942,13 +996,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2136110039</v>
+        <v>2136110011</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -956,13 +1010,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>2136110034</v>
+        <v>2236150003</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -970,13 +1024,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>2236150003</v>
+        <v>2136110044</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -984,13 +1038,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>2136110011</v>
+        <v>2136110008</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -998,13 +1052,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>2136110008</v>
+        <v>2136110006</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1012,13 +1066,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>2136110006</v>
+        <v>2136110003</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1026,13 +1080,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>2136110003</v>
+        <v>2136110002</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1046,7 +1100,7 @@
         <v>2136110025</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1054,13 +1108,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>2136110027</v>
+        <v>2236150001</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1068,13 +1122,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>2136110021</v>
+        <v>2136110035</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1082,13 +1136,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>2136110014</v>
+        <v>2136110032</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1096,13 +1150,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>2136110035</v>
+        <v>2136110027</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1116,7 +1170,7 @@
         <v>2136110004</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1124,13 +1178,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>2236150001</v>
+        <v>2136110021</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1138,13 +1192,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>2136110032</v>
+        <v>2136110014</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1158,7 +1212,7 @@
         <v>2236150002</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1166,13 +1220,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B27">
-        <v>2136110013</v>
+        <v>2136110045</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1180,16 +1234,352 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>2136110045</v>
+        <v>2136110013</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2136110005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2136110009</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>2136110020</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>2136110023</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>2136110010</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>2136110048</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>2136110031</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2136110037</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>2136110016</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>2136110022</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2136110038</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>2136110015</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>2136110018</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2136110042</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>2136110019</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>2136110030</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>2136110029</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>2136110028</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2136110047</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>2136110026</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2136110049</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>2136110024</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>2136110036</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2136110001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1207,16 +1597,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1227,7 +1617,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -1241,7 +1631,7 @@
         <v>2136110015</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -1255,7 +1645,7 @@
         <v>2136110018</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1269,7 +1659,7 @@
         <v>2136110019</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1283,7 +1673,7 @@
         <v>2136110022</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1297,7 +1687,7 @@
         <v>2136110024</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1311,7 +1701,7 @@
         <v>2136110026</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1325,7 +1715,7 @@
         <v>2136110028</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -1339,7 +1729,7 @@
         <v>2136110029</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1353,7 +1743,7 @@
         <v>2136110030</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1367,7 +1757,7 @@
         <v>2136110036</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1381,7 +1771,7 @@
         <v>2136110038</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1395,7 +1785,7 @@
         <v>2136110042</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1409,7 +1799,7 @@
         <v>2136110047</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1423,7 +1813,7 @@
         <v>2136110049</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>15</v>

--- a/output/DSCP608_output.xlsx
+++ b/output/DSCP608_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Staff Report</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -123,36 +123,42 @@
     <t>Mohanraj D</t>
   </si>
   <si>
+    <t>Marikannan P</t>
+  </si>
+  <si>
     <t>Sanjay S</t>
   </si>
   <si>
+    <t>Guruprasath V</t>
+  </si>
+  <si>
     <t>Jaisankar S</t>
   </si>
   <si>
-    <t>Marikannan P</t>
-  </si>
-  <si>
-    <t>Guruprasath V</t>
+    <t>Arulselvam C</t>
+  </si>
+  <si>
+    <t>Sathishkumar N</t>
+  </si>
+  <si>
+    <t>Preethiga S</t>
+  </si>
+  <si>
+    <t>Pranav Varshan A T</t>
   </si>
   <si>
     <t>Kaviraj M</t>
   </si>
   <si>
-    <t>Pranav Varshan A T</t>
-  </si>
-  <si>
-    <t>Preethiga S</t>
+    <t>Adhithi K</t>
+  </si>
+  <si>
+    <t>Krishnakumar S</t>
   </si>
   <si>
     <t>Manoharan K</t>
   </si>
   <si>
-    <t>Krishnakumar S</t>
-  </si>
-  <si>
-    <t>Sathishkumar N</t>
-  </si>
-  <si>
     <t>Jananika B</t>
   </si>
   <si>
@@ -162,40 +168,37 @@
     <t>Ashik Jenly V L</t>
   </si>
   <si>
-    <t>Arulselvam C</t>
-  </si>
-  <si>
-    <t>Adhithi K</t>
+    <t>Subhashini S</t>
+  </si>
+  <si>
+    <t>Aravind R</t>
+  </si>
+  <si>
+    <t>Jaikrishnan V</t>
+  </si>
+  <si>
+    <t>Manuneethi S</t>
+  </si>
+  <si>
+    <t>Nawin B</t>
   </si>
   <si>
     <t>Dhanush B</t>
   </si>
   <si>
-    <t>Manuneethi S</t>
-  </si>
-  <si>
-    <t>Jaikrishnan V</t>
-  </si>
-  <si>
-    <t>Aravind R</t>
-  </si>
-  <si>
     <t>Deepakragavan J</t>
   </si>
   <si>
-    <t>Subhashini S</t>
-  </si>
-  <si>
-    <t>Nawin B</t>
-  </si>
-  <si>
     <t>Mohammed Azees M</t>
   </si>
   <si>
+    <t>Naveena A</t>
+  </si>
+  <si>
     <t>Varsha V</t>
   </si>
   <si>
-    <t>Naveena A</t>
+    <t>Srija D</t>
   </si>
   <si>
     <t>Devadharshini A</t>
@@ -204,70 +207,49 @@
     <t>Kalaivani S</t>
   </si>
   <si>
-    <t>Srija D</t>
-  </si>
-  <si>
-    <t>Surya Prakash R</t>
-  </si>
-  <si>
-    <t>Krishnapriya K</t>
-  </si>
-  <si>
-    <t>Bhuvanadurai M</t>
-  </si>
-  <si>
-    <t>Hitesh Kumar K A</t>
-  </si>
-  <si>
-    <t>Mohamed Tharif B</t>
-  </si>
-  <si>
-    <t>Nithya Sri R</t>
+    <t>Aravind S</t>
+  </si>
+  <si>
+    <t>Nilavanan S.A</t>
+  </si>
+  <si>
+    <t>Sikanthkumar C</t>
+  </si>
+  <si>
+    <t>Sivaa Ganesh S</t>
   </si>
   <si>
     <t>Suji Shri B</t>
   </si>
   <si>
+    <t>Upanshu</t>
+  </si>
+  <si>
+    <t>Ajay S</t>
+  </si>
+  <si>
+    <t>Ayyanar Bala Subramanian T</t>
+  </si>
+  <si>
+    <t>Balaganapathi A</t>
+  </si>
+  <si>
+    <t>Brijesh A</t>
+  </si>
+  <si>
+    <t>Mohamed Suhail J</t>
+  </si>
+  <si>
     <t>Pradeep M</t>
   </si>
   <si>
-    <t>Nilavanan S.A</t>
-  </si>
-  <si>
-    <t>Sikanthkumar C</t>
-  </si>
-  <si>
     <t>Rajadurai P</t>
   </si>
   <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Brijesh A</t>
-  </si>
-  <si>
-    <t>Balaganapathi A</t>
-  </si>
-  <si>
-    <t>Ayyanar Bala Subramanian T</t>
-  </si>
-  <si>
     <t>Gowtham R</t>
   </si>
   <si>
-    <t>Ajay S</t>
-  </si>
-  <si>
     <t>Kailashwaran R</t>
-  </si>
-  <si>
-    <t>Upanshu</t>
-  </si>
-  <si>
-    <t>Mohamed Suhail J</t>
-  </si>
-  <si>
-    <t>Aravind S</t>
   </si>
 </sst>
 </file>
@@ -666,7 +648,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +673,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -848,7 +830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,10 +880,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>2136110043</v>
+        <v>2136110046</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -912,10 +894,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>2136110033</v>
+        <v>2136110043</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -926,10 +908,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2136110046</v>
+        <v>2136110007</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -940,10 +922,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>2136110007</v>
+        <v>2136110033</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -954,10 +936,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2136110034</v>
+        <v>2136110002</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -968,10 +950,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>2136110039</v>
+        <v>2136110044</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -996,10 +978,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>2136110011</v>
+        <v>2136110039</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1010,10 +992,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>2236150003</v>
+        <v>2136110034</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -1024,10 +1006,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>2136110044</v>
+        <v>2136110025</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1038,10 +1020,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>2136110008</v>
+        <v>2236150003</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -1052,10 +1034,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>2136110006</v>
+        <v>2136110011</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1066,10 +1048,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>2136110003</v>
+        <v>2136110008</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -1080,10 +1062,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>2136110002</v>
+        <v>2136110006</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1094,10 +1076,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>2136110025</v>
+        <v>2136110003</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1108,10 +1090,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>2236150001</v>
+        <v>2136110021</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -1122,10 +1104,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>2136110035</v>
+        <v>2136110027</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1150,10 +1132,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>2136110027</v>
+        <v>2136110035</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -1164,10 +1146,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>2136110004</v>
+        <v>2136110014</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -1178,10 +1160,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>2136110021</v>
+        <v>2236150001</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1192,10 +1174,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>2136110014</v>
+        <v>2136110004</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1220,10 +1202,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>2136110045</v>
+        <v>2136110013</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -1234,10 +1216,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>2136110013</v>
+        <v>2136110045</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1248,10 +1230,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>2136110005</v>
+        <v>2136110020</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1262,10 +1244,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>2136110009</v>
+        <v>2136110005</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -1276,310 +1258,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>2136110020</v>
+        <v>2136110009</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
       </c>
       <c r="D31">
         <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>2136110023</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>2136110010</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>47</v>
-      </c>
-      <c r="B34">
-        <v>2136110048</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>2136110031</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>2136110037</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>2136110016</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>21</v>
-      </c>
-      <c r="B38">
-        <v>2136110022</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>2136110038</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>2136110015</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>2136110018</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2136110042</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>18</v>
-      </c>
-      <c r="B43">
-        <v>2136110019</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>29</v>
-      </c>
-      <c r="B44">
-        <v>2136110030</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>28</v>
-      </c>
-      <c r="B45">
-        <v>2136110029</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>27</v>
-      </c>
-      <c r="B46">
-        <v>2136110028</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2136110047</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>25</v>
-      </c>
-      <c r="B48">
-        <v>2136110026</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>2136110049</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>23</v>
-      </c>
-      <c r="B50">
-        <v>2136110024</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>35</v>
-      </c>
-      <c r="B51">
-        <v>2136110036</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>2136110001</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1305,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -1631,7 +1319,7 @@
         <v>2136110015</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -1645,7 +1333,7 @@
         <v>2136110018</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1659,7 +1347,7 @@
         <v>2136110019</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1673,7 +1361,7 @@
         <v>2136110022</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1687,7 +1375,7 @@
         <v>2136110024</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1701,7 +1389,7 @@
         <v>2136110026</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1715,7 +1403,7 @@
         <v>2136110028</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -1729,7 +1417,7 @@
         <v>2136110029</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1743,7 +1431,7 @@
         <v>2136110030</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1757,7 +1445,7 @@
         <v>2136110036</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1771,7 +1459,7 @@
         <v>2136110038</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1785,7 +1473,7 @@
         <v>2136110042</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1799,7 +1487,7 @@
         <v>2136110047</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1813,7 +1501,7 @@
         <v>2136110049</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>15</v>
